--- a/data/emails.xlsx
+++ b/data/emails.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,720 +436,1152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana Luiza Dos Santos</t>
+          <t>Alberto Guilherme Da Silva Martins</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sanaluiza891@gmail.com</t>
+          <t>albertoguilhermes7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rafaela Alves Mendes</t>
+          <t>Alberto Luiz Marinho Batista</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rafaela@cpalcina.com</t>
+          <t>alberto@cpalcina.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Robéria Gilo Da Silva</t>
+          <t>Alyni Mayara Farias Da Silva Santos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>roberiagilo@hotmail.com</t>
+          <t>alyni.cpalcina@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danielle Dos Santos Silva</t>
+          <t>Amanda Santos Costa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>santosdanielle739@gmail.com</t>
+          <t>amandasantoscosta465@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Claudio Bispo Dos Santos</t>
+          <t>Ana Clara de Matos Chagas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>claudiobispo1337@gmail.com</t>
+          <t>claramatoschagas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Luciene Da Silva Nascimento</t>
+          <t>Ana Luiza Dos Santos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>enenasc31@gmail.com</t>
+          <t>sanaluiza891@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>José Fernando Dos Santos Santana Ramos</t>
+          <t>Ana Paula Amaral Santos Ismerim</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fernando@cpalcina.com</t>
+          <t>paulaamaralse@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mariane Santos Sousa</t>
+          <t>Anderson Rosalvo Rocha dos Santos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>marianessousa02@gmail.com</t>
+          <t>andinhorrocha00@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kemilly Rafaelly Souza Silva</t>
+          <t>Ane Caroline Pereira marter</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kemillyrafaelly05@hotmail.com</t>
+          <t>marter.2car@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alberto Guilherme Da Silva Martins</t>
+          <t>Anny Karoline Andrade Santos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>albertoguilhermes7@gmail.com</t>
+          <t>karolineanny551@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alberto Luiz Marinho Batista</t>
+          <t>Bruna Candido de Lima</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alberto@cpalcina.com</t>
+          <t>brunacl.bl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maria Nobre Farias De França</t>
+          <t>Bruna Rayane Oliveira dos Santos</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>administrativo@cpalcina.com</t>
+          <t>brunarayane006@icloud.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gessica Aparecida Dos Santos</t>
+          <t>CLÉDJON DIAS DOS SANTOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gessyqas@gmail.com</t>
+          <t>pepeucaixa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bruna Candido de Lima</t>
+          <t>Caique dos santos da silva</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>brunacl.bl@gmail.com</t>
+          <t>caiquesantosa6@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ravy Thiago Vieira Da Silva</t>
+          <t>Camilla Emanuelle Lopes de Almeida</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ravy@cpalcina.com</t>
+          <t>camillaemanuelle17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amanda Santos Costa</t>
+          <t>Camille Kauane Da Silva Nunes</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>amandasantoscosta465@gmail.com</t>
+          <t>camille.nunes964@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Natali de Souza Gonzaga</t>
+          <t>Carlos Eduardo Silva De Oliveira</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nathallysouza57@gmail.com</t>
+          <t>carloscontato148@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Emanoelle Feitosa Vieira Santos</t>
+          <t>Claudio Bispo Dos Santos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>emanoelyvieira@gmail.com</t>
+          <t>claudiobispo1337@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Camille Kauane Da Silva Nunes</t>
+          <t>Cristielle Pereira Lima Da Silva</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>camille.nunes964@gmail.com</t>
+          <t>gctielly@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Paulo Rogério Santos</t>
+          <t>Danielle Dos Santos Silva</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pauloroger1979@gmail.com</t>
+          <t>santosdanielle739@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Leidiane Souza</t>
+          <t>Danrley firmino dos santos</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>leidiane@cpalcina.com</t>
+          <t>firminodanrley@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Luan Santos de Oliveira</t>
+          <t>David da Silva Bento</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>luansantos2406@icloud.com</t>
+          <t>davids.bento12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Valesca Meirelle Bezerra Vitória</t>
+          <t>Deise Gislaine Silva vitor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>valescavitorio6@gmail.com</t>
+          <t>deisesantos1108@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Leticia Seixas Santos</t>
+          <t>Edna Lopes Da Silva</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>letiseixass_@hotmail.com</t>
+          <t>ednalopes7888@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Erick Café Santos Júnior</t>
+          <t>Eliene Da Silva Santos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>erick.cafe@gmail.com</t>
+          <t>liene-ln@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Joao Antonio Tavares Santos</t>
+          <t>Emanoelle Feitosa Vieira Santos</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joao_tavares_17@hotmail.com</t>
+          <t>emanoelyvieira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>João Victor Santos da Silva</t>
+          <t>Erick Café Santos Júnior</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joaovictor.vs9400@gmail.com</t>
+          <t>erick.cafe@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Camilla Emanuelle Lopes de Almeida</t>
+          <t>Gabrielle Vitoria dos Santos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>camillaemanuelle17@gmail.com</t>
+          <t>gabriellevitoriads18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Deise Gislaine Silva Vitor</t>
+          <t>Gessica Aparecida Dos Santos</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>deisesantos1108@gmail.com</t>
+          <t>gessyqas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yuri Castro Gomes</t>
+          <t>Gessyca Nayara Rocha Santos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gomesdecastrosantos@gmail.com</t>
+          <t>gessycarocha7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rodrigo Augusto Teixeira Dos Santos</t>
+          <t>Giselle Dos Santos Roberto</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>diguinho97@live.com</t>
+          <t>gisellesantosroberto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kamilla Santos da Silva</t>
+          <t>Hugo Castro Lopes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>myllassantos18@gmail.com</t>
+          <t>hugocastro100@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lucrécia Severo Ferreira</t>
+          <t>Isla Gabriela De Azevedo Santos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>flucrecia758@gmail.com</t>
+          <t>islag56@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Marcio Alif Santos Silva</t>
+          <t>Joao Antonio Tavares Santos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>marcioalif03@gmail.com</t>
+          <t>joao_tavares_17@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CLÉDJON DIAS DOS SANTOS</t>
+          <t>Jonathan Henrique da Conceição Silva</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pepeucaixa@gmail.com</t>
+          <t>jontahenrique@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ludmylla Wolpert Melo</t>
+          <t>Jordelle Meygre Costa De Oliveira</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>wolpertludmylla9@gmail.com</t>
+          <t>jordellecosta16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Millena Sthefany dos Santos Cruz</t>
+          <t>Josimara Ferreira Monteiro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>millenasthefany25@gmail.com</t>
+          <t>josimaraferreiramonteiro23@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>THAMIRYS SILVESTRINI MORALES</t>
+          <t>José Fernando Dos Santos Santana Ramos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>silvestrinithamirys@gmail.com</t>
+          <t>fernando@cpalcina.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ana Clara de Matos Chagas</t>
+          <t>Joyce cassimiro souto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>claramatoschagas@gmail.com</t>
+          <t>joycecsouto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jonathan Henrique da Conceição Silva</t>
+          <t>João Ricardo Dantas Albuquerque</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jontahenrique@gmail.com</t>
+          <t>joao.ri.albuquerque@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bruna Rayane Oliveira dos Santos</t>
+          <t>João Victor Santos da Silva</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>brunarayane006@icloud.com</t>
+          <t>joaovictor.vs9400@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moises Santiago</t>
+          <t>Juliana Oliveira Cavalcante</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>moises.santiago16@gmail.com</t>
+          <t>julianaocavalcante@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Silva De Oliveira</t>
+          <t>Juliene bezerra</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>carloscontato148@gmail.com</t>
+          <t>rolimjulienee88@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Thayane Mayara dos Santos</t>
+          <t>Kamilla Santos da Silva</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>thayanemayara2025@gmail.com</t>
+          <t>myllassantos18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cristielle Pereira Lima Da Silva</t>
+          <t>Karine Celestino Evangelista dos Santos</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gctielly@gmail.com</t>
+          <t>karinecelestinoevangelistaevan@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>David da Silva Bento</t>
+          <t>Kauanne Iwashita Da Silva</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>davids.bento12@gmail.com</t>
+          <t>anneiwashita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Letícia Soares Belo</t>
+          <t>Kemilly Rafaelly Souza Silva</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>leticia.cpalcina@gmail.com</t>
+          <t>kemillyrafaelly05@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ana Paula Amaral Santos Ismerim</t>
+          <t>Laís Manuelle Santos Pereira</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>paulaamaralse@gmail.com</t>
+          <t>laismanuelle625@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Josimara Ferreira Monteiro</t>
+          <t>Leidiane Souza</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>josimaraferreiramonteiro23@gmail.com</t>
+          <t>leidiane@cpalcina.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Luiz Fellipe Guedes Santos Silva</t>
+          <t>Leticia Seixas Santos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>luizfellipe1810@gmail.com</t>
+          <t>letiseixass_@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Giselle Dos Santos Roberto</t>
+          <t>Letícia Soares Belo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gisellesantosroberto@gmail.com</t>
+          <t>leticia.cpalcina@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Yasmim Da Rocha Bezerra Barbosa</t>
+          <t>Lianda Melinda Santos Calixto</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rochayasmim1950@gmail.com</t>
+          <t>liandamelinda7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Joyce Cassimiro Souto</t>
+          <t>Luan Santos de Oliveira</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joycecsouto@gmail.com</t>
+          <t>luansantos2406@icloud.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Danrley Firmino dos Santos</t>
+          <t>Luciano Torres</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>firminodanrley@gmail.com</t>
+          <t>cianotorres1982@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eliene Da Silva Santos</t>
+          <t>Luciene Da Silva Nascimento</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>liene-ln@hotmail.com</t>
+          <t>enenasc31@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Laís Manuelle Santos Pereira</t>
+          <t>Lucrécia Severo Ferreira</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>laismanuelle625@gmail.com</t>
+          <t>flucrecia758@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Thalys Gomes Dos Santos</t>
+          <t>Ludmylla Wolpert Melo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>thalys-gomes@hotmail.com</t>
+          <t>wolpertludmylla9@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Caique dos Santos da Silva</t>
+          <t>Luiz Fellipe Guedes Santos Silva</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>caiquesantosa6@gmail.com</t>
+          <t>luizfellipe1810@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tomás Azevedo Santos</t>
+          <t>Luiz Henrique Martins Tavares</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>azevedo.tomas@outlook.com</t>
+          <t>luiz@cpalcina.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Alyni Mayara Farias Da Silva Santos</t>
+          <t>Luís Henrique Batista dos Santos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>alyni.cpalcina@gmail.com</t>
+          <t>cobradaguasw2016@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Marcio Alif Santos Silva</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>marcioalif03@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Maria Nobre Farias De França</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>administrativo@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Maria Taciane Pereira Barbosa</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tacianep@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Maria Tatiane Basto Cardoso</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>taty7b7oirx8@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Maria Tatiane Oliveira Santos</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>iniciospenedo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Maria Victoria Souza Araujo Ferro</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mariavicsaf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mariane Santos Sousa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>marianessousa02@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Maryanna Francielly Trajano da Silva</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>maryannatrajano15@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michaell Jean Nunes De Carvalho</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>michael@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Millena Sthefany dos Santos Cruz</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>millenasthefany25@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Moises Santiago</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>moises.santiago16@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Natali de Souza Gonzaga</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>nathallysouza57@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nathalia Vieira Lima</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>nvieira2819@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Paulo Cesar Da Silva Santos Junior</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fidjamaepaulo700@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Paulo Rogério Santos</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>pauloroger1979@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Pedro Lucas Rocha da Fonseca</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>pedrofoseca257@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rafaela Alves Mendes</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rafaela@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Raquele Fragoso Da Silva</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>kelly25flu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ravy Thiago Vieira Da Silva</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ravy@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Robéria Gilo Da Silva</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>roberiagilo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Rodrigo Augusto Teixeira Dos Santos</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>diguinho97@live.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Romulo Jose Santos Lisboa</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>romulo@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rosilene Martins Da Silva</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rosilenemartins384@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sabrina Domingos Santos</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sofia2017ellen@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Samyra Anchieta Bispo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>samyraanchieta1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sandra da Conceição Freitas</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sandrafreitas709@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Suzana Martins Tavares</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>suzana@cpalcina.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>THAMIRYS SILVESTRINI MORALES</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>silvestrinithamirys@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Thalita Ruanna Santos Pereira</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>thalita23ruanna@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Thalys Gomes Dos Santos</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>thalys-gomes@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Thayane Mayara dos Santos</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>thayanemayara2025@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tomás Azevedo Santos</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>azevedo.tomas@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Valesca Meirelle Bezerra Vitória</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>valescavitorio6@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Yasmim Da Rocha Bezerra Barbosa</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rochayasmim1950@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Yasmin Abilia Ferro da Silva</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>yabilia0@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Yuri Castro Gomes</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>gomesdecastrosantos@gmail.com</t>
         </is>
       </c>
     </row>
